--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/C/15/seed3/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/C/15/seed3/result_data_RandomForest.xlsx
@@ -570,7 +570,7 @@
         <v>2.91</v>
       </c>
       <c r="C8" t="n">
-        <v>-12.4536</v>
+        <v>-12.71529999999999</v>
       </c>
       <c r="D8" t="n">
         <v>-8.029999999999999</v>
@@ -604,7 +604,7 @@
         <v>6.17</v>
       </c>
       <c r="C10" t="n">
-        <v>-13.1093</v>
+        <v>-13.367</v>
       </c>
       <c r="D10" t="n">
         <v>-8.85</v>
@@ -638,7 +638,7 @@
         <v>4.54</v>
       </c>
       <c r="C12" t="n">
-        <v>-10.61059999999999</v>
+        <v>-10.7193</v>
       </c>
       <c r="D12" t="n">
         <v>-6.85</v>
@@ -740,7 +740,7 @@
         <v>4.35</v>
       </c>
       <c r="C18" t="n">
-        <v>-11.99449999999999</v>
+        <v>-12.2512</v>
       </c>
       <c r="D18" t="n">
         <v>-6.27</v>
@@ -1063,7 +1063,7 @@
         <v>9.41</v>
       </c>
       <c r="C37" t="n">
-        <v>-13.3419</v>
+        <v>-13.0138</v>
       </c>
       <c r="D37" t="n">
         <v>-7.88</v>
@@ -1369,7 +1369,7 @@
         <v>5.38</v>
       </c>
       <c r="C55" t="n">
-        <v>-13.5364</v>
+        <v>-13.47429999999999</v>
       </c>
       <c r="D55" t="n">
         <v>-10.06</v>
@@ -1590,7 +1590,7 @@
         <v>4.88</v>
       </c>
       <c r="C68" t="n">
-        <v>-11.405</v>
+        <v>-11.496</v>
       </c>
       <c r="D68" t="n">
         <v>-7.27</v>
@@ -1743,7 +1743,7 @@
         <v>10.09</v>
       </c>
       <c r="C77" t="n">
-        <v>-11.99080000000001</v>
+        <v>-12.1084</v>
       </c>
       <c r="D77" t="n">
         <v>-6.2</v>
@@ -1760,7 +1760,7 @@
         <v>9.640000000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>-12.16230000000001</v>
+        <v>-12.24780000000001</v>
       </c>
       <c r="D78" t="n">
         <v>-6.53</v>
@@ -1811,7 +1811,7 @@
         <v>3.85</v>
       </c>
       <c r="C81" t="n">
-        <v>-13.1801</v>
+        <v>-13.371</v>
       </c>
       <c r="D81" t="n">
         <v>-8.390000000000001</v>
@@ -1828,7 +1828,7 @@
         <v>5.26</v>
       </c>
       <c r="C82" t="n">
-        <v>-12.1886</v>
+        <v>-12.1584</v>
       </c>
       <c r="D82" t="n">
         <v>-7.37</v>
